--- a/TestData/LV_T1426_OpportunityToEngagementConversionMappingForCF.xlsx
+++ b/TestData/LV_T1426_OpportunityToEngagementConversionMappingForCF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73DBBF9-6EFE-4DF2-99CD-5C28F4C25F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A8E7C-8A41-4E26-9EF4-8B805DFEEF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1680" windowWidth="21555" windowHeight="10590" tabRatio="548" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="87">
   <si>
     <t>James Craven</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Gemma Hardy</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>JobType</t>
   </si>
   <si>
-    <t>IndustryGroup</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -170,143 +164,152 @@
     <t>Techno Coatings, Inc.</t>
   </si>
   <si>
+    <t>Dealership &amp; Rental Services</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>HL Capital, Inc.</t>
+  </si>
+  <si>
+    <t>Do Not Disclose</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Public Equity</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Chris Lord</t>
+  </si>
+  <si>
+    <t>Yes, separate signed agreement</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>ClientType</t>
+  </si>
+  <si>
+    <t>Contact2</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>HLContact</t>
+  </si>
+  <si>
+    <t>Board of Directors</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Sonika Goyal</t>
+  </si>
+  <si>
+    <t>Kristian M. Whalen</t>
+  </si>
+  <si>
+    <t>Lender Education</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Buyside</t>
+  </si>
+  <si>
+    <t>Sellside</t>
+  </si>
+  <si>
+    <t>ESOP Corporate Finance</t>
+  </si>
+  <si>
+    <t>General Financial Advisory</t>
+  </si>
+  <si>
+    <t>Real Estate Brokerage</t>
+  </si>
+  <si>
+    <t>Special Committee Advisory</t>
+  </si>
+  <si>
+    <t>Strategic Alternatives Study</t>
+  </si>
+  <si>
+    <t>Take Over Defense</t>
+  </si>
+  <si>
+    <t>Activism Advisory</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Post Merger Integration</t>
+  </si>
+  <si>
+    <t>Valuation Advisory</t>
+  </si>
+  <si>
+    <t>Advisory (CF)</t>
+  </si>
+  <si>
+    <t>IndustryGroup/HLSector</t>
+  </si>
+  <si>
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>HL Capital, Inc.</t>
-  </si>
-  <si>
-    <t>Do Not Disclose</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Public Equity</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Chris Lord</t>
-  </si>
-  <si>
-    <t>Yes, separate signed agreement</t>
-  </si>
-  <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>ClientType</t>
-  </si>
-  <si>
-    <t>Contact2</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>HLContact</t>
-  </si>
-  <si>
-    <t>Board of Directors</t>
-  </si>
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Sonika Goyal</t>
-  </si>
-  <si>
-    <t>Kristian M. Whalen</t>
-  </si>
-  <si>
-    <t>Lender Education</t>
-  </si>
-  <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
-    <t>Buyside</t>
-  </si>
-  <si>
-    <t>Sellside</t>
-  </si>
-  <si>
-    <t>ESOP Corporate Finance</t>
-  </si>
-  <si>
-    <t>General Financial Advisory</t>
-  </si>
-  <si>
-    <t>Real Estate Brokerage</t>
-  </si>
-  <si>
-    <t>Special Committee Advisory</t>
-  </si>
-  <si>
-    <t>Strategic Alternatives Study</t>
-  </si>
-  <si>
-    <t>Take Over Defense</t>
-  </si>
-  <si>
-    <t>Activism Advisory</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Post Merger Integration</t>
-  </si>
-  <si>
-    <t>Valuation Advisory</t>
-  </si>
-  <si>
-    <t>Advisory (CF)</t>
+    <t>Engagements</t>
+  </si>
+  <si>
+    <t>Brian Miller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,16 +325,223 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -339,11 +549,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -353,12 +707,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{18F405CE-23A4-4C4C-B371-AE456DF50166}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{53E09CC4-CD0B-4903-AB85-EAD4F3DBE10E}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{48A24C65-EA6C-4011-A90B-5B988E6F97A1}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{121E4F96-983A-4B81-9678-7A302EAF19F6}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{DE3C42A6-B9BB-415D-B743-A11F8DD49B8B}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{D2A83885-5F19-4850-9EF1-F525860B816A}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{9856F962-EB83-41C7-8661-4E94C6B2A263}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{F7CC0E91-483F-4691-A6B3-F060A3E4808F}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{2058F8A6-5FF0-46CB-B87A-60B76B7D36DA}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{86FE19BC-84E0-4216-9237-1D2DD46167F2}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{E3751D99-0D6E-488C-BD82-BA5FCBA331F6}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{B0EE886A-246E-4219-A0E4-65C18DB2B473}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{348E8A9E-E791-4665-8130-A9A0ADD23852}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{BD55C39B-DDBD-4B60-80A3-CB6128B36D58}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{904319D2-5B5C-42A6-8D7C-882BDB72DF84}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{11B7C83B-CBC3-4180-963B-DA6F20AF13D7}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{2C16B1EE-1649-4FB7-9B0E-FA1E1AA7E349}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{86F4BB51-9FC8-4B68-A6FB-C169161B268C}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{86D422F8-E5D9-4F04-A9D6-A9E894ED992C}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{56844E45-6A3B-4EA9-9AC2-458190076EFE}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{316EA193-1697-4E38-A919-0AAEB5F8385D}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{108EEA7E-E8D5-41C7-A71B-1446CFB47664}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{5FA29A9A-33D8-42FD-8D80-7AB99D8D45D7}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{43993888-6E39-4C9F-B086-338D7B1DD935}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{09E64E1F-293F-4AC5-96CD-AF95F0152E4F}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{2917F84F-A2B2-4C06-9CB1-CEAF76632312}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{C8B67C7F-462F-4E7D-B87B-E1184F738A1A}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{BCD78F52-DC42-43B5-82C4-56AF161F9B10}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{76135646-BAC9-4CBD-93AC-2EDDFE760FCF}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{14A1A2E0-241A-48DC-BDEE-7D7B71EE0E7B}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{9CA966D0-94C9-4B88-9155-BEA17CE6FEE2}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{8067448C-6C65-43DC-A16F-A1B8181647CB}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{CF2A7296-D972-4FA5-97DC-D13DFB4CE6DE}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{8D23884A-F154-4A4F-9CF6-B72054B4D24D}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{6BDF974C-E915-4A4E-ADAD-6CCACC8E1D0C}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{F93D2387-FAC1-44AC-BA99-2FC4062C90CA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4D2C1CC3-9C97-4E78-9446-E6EEC8FE23E7}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{9AB2F47F-1096-466B-8EE2-4E8885790BF0}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{1AFBDA1C-1061-4EF1-9542-B189E4B860DA}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{D1E67C06-1E9B-4C2D-84BF-A2AEBD47CB4C}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{D8FAF9FE-7EF9-4EAE-A091-EEC0591F910F}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{07478D29-163D-4C37-942B-F8C878294B3A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB8EB1-471A-4668-845A-6810E22F6BA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +1089,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -731,15 +1128,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D296AE2-31EA-40C7-99FB-9B7E70535054}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -750,6 +1147,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -762,1149 +1164,1150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>57</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>57</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>50</v>
       </c>
-      <c r="S4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" t="s">
         <v>51</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>52</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>53</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>54</v>
       </c>
-      <c r="X4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>57</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>50</v>
       </c>
-      <c r="S5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="W5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>52</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>53</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>57</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="W6" t="s">
         <v>51</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>52</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>53</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>54</v>
       </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>57</v>
-      </c>
       <c r="AA6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>50</v>
       </c>
-      <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="3" t="s">
+      <c r="W7" t="s">
         <v>51</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>52</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
         <v>53</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>54</v>
       </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>57</v>
-      </c>
       <c r="AA7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>50</v>
       </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="W8" t="s">
         <v>51</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>52</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Y8" t="s">
         <v>53</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>57</v>
-      </c>
       <c r="AA8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="s">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>50</v>
       </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="W9" t="s">
         <v>51</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>52</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Y9" t="s">
         <v>53</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>54</v>
       </c>
-      <c r="X9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>57</v>
-      </c>
       <c r="AA9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC9" t="s">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>50</v>
       </c>
-      <c r="S10" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="W10" t="s">
         <v>51</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>52</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
         <v>53</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>54</v>
       </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>57</v>
-      </c>
       <c r="AA10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC10" t="s">
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
         <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s">
-        <v>48</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>50</v>
       </c>
-      <c r="S11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="W11" t="s">
         <v>51</v>
       </c>
-      <c r="U11" t="s">
+      <c r="X11" t="s">
         <v>52</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Y11" t="s">
         <v>53</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>54</v>
       </c>
-      <c r="X11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>57</v>
-      </c>
       <c r="AA11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC11" t="s">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="L12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>50</v>
       </c>
-      <c r="S12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="W12" t="s">
         <v>51</v>
       </c>
-      <c r="U12" t="s">
+      <c r="X12" t="s">
         <v>52</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>53</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Z12" t="s">
         <v>54</v>
       </c>
-      <c r="X12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>57</v>
-      </c>
       <c r="AA12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="s">
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE12">
         <v>11</v>
@@ -1912,94 +2315,94 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
         <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
       </c>
       <c r="N13" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>50</v>
       </c>
-      <c r="S13" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="3" t="s">
+      <c r="W13" t="s">
         <v>51</v>
       </c>
-      <c r="U13" t="s">
+      <c r="X13" t="s">
         <v>52</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Y13" t="s">
         <v>53</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Z13" t="s">
         <v>54</v>
       </c>
-      <c r="X13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>57</v>
-      </c>
       <c r="AA13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="s">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE13">
         <v>12</v>
@@ -2007,100 +2410,101 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="M14" t="s">
         <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="V14" t="s">
         <v>50</v>
       </c>
-      <c r="S14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="W14" t="s">
         <v>51</v>
       </c>
-      <c r="U14" t="s">
+      <c r="X14" t="s">
         <v>52</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Y14" t="s">
         <v>53</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Z14" t="s">
         <v>54</v>
       </c>
-      <c r="X14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>57</v>
-      </c>
       <c r="AA14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC14" t="s">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE14">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2128,54 +2532,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2592,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,21 +2603,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,106 +2625,106 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2328,10 +2732,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2339,10 +2743,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>13</v>

--- a/TestData/LV_T1426_OpportunityToEngagementConversionMappingForCF.xlsx
+++ b/TestData/LV_T1426_OpportunityToEngagementConversionMappingForCF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A8E7C-8A41-4E26-9EF4-8B805DFEEF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7514941F-C9AD-49A8-9FBA-DF8C8C7AE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="AddOpportunity" sheetId="12" r:id="rId5"/>
     <sheet name="AddContact" sheetId="14" r:id="rId6"/>
     <sheet name="Engagement" sheetId="15" r:id="rId7"/>
+    <sheet name="ProductType" sheetId="17" r:id="rId8"/>
+    <sheet name="Notes" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="104">
   <si>
     <t>James Craven</t>
   </si>
@@ -251,9 +253,6 @@
     <t>Lender Education</t>
   </si>
   <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
     <t>Buyside</t>
   </si>
   <si>
@@ -269,9 +268,6 @@
     <t>Real Estate Brokerage</t>
   </si>
   <si>
-    <t>Special Committee Advisory</t>
-  </si>
-  <si>
     <t>Strategic Alternatives Study</t>
   </si>
   <si>
@@ -281,15 +277,6 @@
     <t>Activism Advisory</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Post Merger Integration</t>
-  </si>
-  <si>
-    <t>Valuation Advisory</t>
-  </si>
-  <si>
     <t>Advisory (CF)</t>
   </si>
   <si>
@@ -302,14 +289,80 @@
     <t>Engagements</t>
   </si>
   <si>
-    <t>Brian Miller</t>
+    <t>Compliance User</t>
+  </si>
+  <si>
+    <t>Lorriane Johnson</t>
+  </si>
+  <si>
+    <t>Legal User</t>
+  </si>
+  <si>
+    <t>Christine Sha</t>
+  </si>
+  <si>
+    <t>Legal Hold test Notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Directs</t>
+  </si>
+  <si>
+    <t>Primary Capital Advisory</t>
+  </si>
+  <si>
+    <t>Capital Solutions</t>
+  </si>
+  <si>
+    <t>Equity Placements</t>
+  </si>
+  <si>
+    <t>GP Stake Sale</t>
+  </si>
+  <si>
+    <t>LP-Led Secondaries</t>
+  </si>
+  <si>
+    <t>Liability Management</t>
+  </si>
+  <si>
+    <t>Advisory</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>ERPProductTypeCode</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>System Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,19 +499,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -660,57 +713,51 @@
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyFont="0" applyFill="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyFont="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyFont="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{18F405CE-23A4-4C4C-B371-AE456DF50166}"/>
@@ -1068,15 +1115,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB8EB1-471A-4668-845A-6810E22F6BA4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,10 +1137,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1203,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1223,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1162,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1248,7 @@
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1268,18 +1340,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
+      <c r="C2" t="s">
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1359,22 +1431,19 @@
       <c r="AD2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
+      <c r="C3" t="s">
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -1454,22 +1523,19 @@
       <c r="AD3" t="s">
         <v>55</v>
       </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
+      <c r="C4" t="s">
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -1549,22 +1615,19 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
+      <c r="C5" t="s">
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -1644,22 +1707,19 @@
       <c r="AD5" t="s">
         <v>55</v>
       </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
+      <c r="C6" t="s">
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1739,22 +1799,19 @@
       <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="AE6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
+      <c r="C7" t="s">
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -1834,22 +1891,19 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AE7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
+      <c r="C8" t="s">
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -1929,22 +1983,19 @@
       <c r="AD8" t="s">
         <v>55</v>
       </c>
-      <c r="AE8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -2024,22 +2075,19 @@
       <c r="AD9" t="s">
         <v>55</v>
       </c>
-      <c r="AE9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -2119,22 +2167,19 @@
       <c r="AD10" t="s">
         <v>55</v>
       </c>
-      <c r="AE10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>77</v>
+      <c r="C11" t="s">
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -2214,22 +2259,19 @@
       <c r="AD11" t="s">
         <v>55</v>
       </c>
-      <c r="AE11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -2309,22 +2351,19 @@
       <c r="AD12" t="s">
         <v>55</v>
       </c>
-      <c r="AE12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>80</v>
+      <c r="C13" t="s">
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -2404,22 +2443,19 @@
       <c r="AD13" t="s">
         <v>55</v>
       </c>
-      <c r="AE13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>81</v>
+      <c r="C14" t="s">
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -2499,8 +2535,281 @@
       <c r="AD14" t="s">
         <v>55</v>
       </c>
-      <c r="AE14">
-        <v>13</v>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2824,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2386AE-B180-4489-BA71-14068DFEFD5A}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,10 +2920,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2622,138 +2931,354 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11">
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF8D60A-1002-4D00-B235-C15EB6546928}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9447574-C5CB-49C4-BC94-993C1D07E71B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>